--- a/biology/Zoologie/Grallaire_de_Kaestner/Grallaire_de_Kaestner.xlsx
+++ b/biology/Zoologie/Grallaire_de_Kaestner/Grallaire_de_Kaestner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria kaestneri
 La Grallaire de Kaestner (Grallaria kaestneri) est une espèce d'oiseaux de la famille des Grallariidae endémique de Colombie.
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique au versant Est des Andes en Colombie. Elle vit dans la forêt de nuage primaire et secondaire entre 1 800 et 2 300 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique au versant Est des Andes en Colombie. Elle vit dans la forêt de nuage primaire et secondaire entre 1 800 et 2 300 m d'altitude.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, kaestneri, ainsi que son nom vernaculaire (Grallaire de Kaestner) lui ont été donnés en l'honneur de Peter Kaestner (en), diplomate et ornithologue amateur américain né en 1953, qui a découvert cette espèce mais également en reconnaissance de son intérêt pour l'ornithologie colombienne et pour sa bonne camaraderie sur le terrain[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, kaestneri, ainsi que son nom vernaculaire (Grallaire de Kaestner) lui ont été donnés en l'honneur de Peter Kaestner (en), diplomate et ornithologue amateur américain né en 1953, qui a découvert cette espèce mais également en reconnaissance de son intérêt pour l'ornithologie colombienne et pour sa bonne camaraderie sur le terrain.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) F. Gary Stiles, « A new species of antpitta (Formicariidae: Grallaria) from the eastern Andes of Colombia », The Wilson Bulletin, vol. 104, no 3,‎ septembre 1992, p. 389-570 (ISSN 0043-5643 et 2162-5204, lire en ligne)</t>
         </is>
